--- a/cvm/mxnet/mxnetvscvm.xlsx
+++ b/cvm/mxnet/mxnetvscvm.xlsx
@@ -9,19 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29140" windowHeight="20380"/>
+    <workbookView xWindow="42980" yWindow="460" windowWidth="29140" windowHeight="25780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="CHART DATA" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$10</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,9 +69,6 @@
     <t>AlexNet</t>
   </si>
   <si>
-    <t>SqueeseNet</t>
-  </si>
-  <si>
     <t>DenseNet</t>
   </si>
   <si>
@@ -86,6 +76,9 @@
   </si>
   <si>
     <t>MobileNet</t>
+  </si>
+  <si>
+    <t>SqueezeNet</t>
   </si>
 </sst>
 </file>
@@ -353,6 +346,22 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-Hant" sz="1800" b="1"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-Hant" altLang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-Hant" sz="1800" b="1" baseline="0"/>
+              <a:t>Zoo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-Hant" altLang="en-US" sz="1800" b="1"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-Hant" sz="1800" b="1"/>
               <a:t>and</a:t>
             </a:r>
             <a:r>
@@ -513,7 +522,7 @@
                   <c:v>AlexNet</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SqueeseNet</c:v>
+                  <c:v>SqueezeNet</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>DenseNet</c:v>
@@ -671,7 +680,7 @@
                   <c:v>AlexNet</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SqueeseNet</c:v>
+                  <c:v>SqueezeNet</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>DenseNet</c:v>
@@ -1483,16 +1492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1726,7 +1735,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1811,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>0.57199999999999995</v>
@@ -1813,7 +1822,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>0.7762</v>
@@ -1824,7 +1833,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.74109999999999998</v>
@@ -1835,7 +1844,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.7077</v>
